--- a/xlsx/哈罗德·拉斯韦尔_intext.xlsx
+++ b/xlsx/哈罗德·拉斯韦尔_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>政策_政策_政治_哈罗德·拉斯韦尔</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E8%80%85</t>
